--- a/266总表1026与266总表1028.xlsx
+++ b/266总表1026与266总表1028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\Compare_266_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61770534-04D1-47C5-BA04-4B1D0092FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2AC93C-A0CB-42D8-BCD3-6C494E9AF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="6450" windowWidth="31890" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,47 +335,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -794,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1243,529 +1203,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="2"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="2"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="2"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="2"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="2"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="2"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="2"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="2"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="2"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="2"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="2"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="2"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="2"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="2"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A15">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A68">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="A16:A33">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A68">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A103">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A103">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A16:A33">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
